--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTruc_220225.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTruc_220225.xlsx
@@ -542,6 +542,42 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,42 +609,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,7 +971,7 @@
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -991,77 +991,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="33"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -1079,12 +1079,12 @@
       <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="33"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -1102,12 +1102,12 @@
       <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="33"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -1125,12 +1125,12 @@
       <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="34"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -1382,7 +1382,7 @@
       <c r="H16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="7"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -1402,7 +1402,7 @@
       <c r="B17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="24"/>
@@ -1418,7 +1418,7 @@
       <c r="H17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="7"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -1438,7 +1438,7 @@
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="37">
         <v>861881053434446</v>
       </c>
       <c r="D18" s="24"/>
@@ -1452,7 +1452,7 @@
       <c r="H18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="7"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -1472,7 +1472,7 @@
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="24"/>
@@ -1486,7 +1486,7 @@
       <c r="H19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="59"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="7"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -1506,7 +1506,7 @@
       <c r="B20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="24"/>
@@ -1520,7 +1520,7 @@
       <c r="H20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="7"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -1540,7 +1540,7 @@
       <c r="B21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="24"/>
@@ -1554,7 +1554,7 @@
       <c r="H21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="7"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -1574,7 +1574,7 @@
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="24"/>
@@ -1588,7 +1588,7 @@
       <c r="H22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="7"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -1622,26 +1622,26 @@
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -1688,19 +1688,19 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -1714,12 +1714,17 @@
       <c r="I31" s="23"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="72" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B33:C33"/>
@@ -1731,11 +1736,6 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTruc_220225.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTruc_220225.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang2\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061C53D-AD52-4DC8-803D-EB2D425C439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9615" windowHeight="2100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
@@ -458,7 +459,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -469,29 +470,27 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,9 +498,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -526,16 +522,14 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -551,13 +545,46 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -566,50 +593,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,7 +640,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -679,9 +679,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,9 +719,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,7 +791,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,14 +964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -990,618 +990,448 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="51" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="54" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="57" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-    </row>
-    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-    </row>
-    <row r="10" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    </row>
+    <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="7"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    </row>
+    <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="7"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    </row>
+    <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>3</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="7"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    </row>
+    <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>4</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="7"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-    </row>
-    <row r="15" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    </row>
+    <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="7"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    </row>
+    <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>6</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="7"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-    </row>
-    <row r="17" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    </row>
+    <row r="17" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
         <v>7</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="7"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    </row>
+    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>8</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="32">
         <v>861881053434446</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="7"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    </row>
+    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="7"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    </row>
+    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
         <v>10</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="7"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    </row>
+    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
         <v>11</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="7"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    </row>
+    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
         <v>12</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="39"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="7"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-    </row>
-    <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1613,40 +1443,40 @@
       <c r="I23" s="11"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="42" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="45" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6"/>
@@ -1654,10 +1484,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="6"/>
@@ -1665,10 +1495,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="6"/>
@@ -1676,55 +1506,50 @@
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="44" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="72" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="B33:C33"/>
@@ -1736,6 +1561,11 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
